--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Eng.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N2">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O2">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P2">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q2">
-        <v>7.276227708082665</v>
+        <v>6.739323668315333</v>
       </c>
       <c r="R2">
-        <v>43.657366248496</v>
+        <v>40.435942009892</v>
       </c>
       <c r="S2">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="T2">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,22 +629,22 @@
         <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P3">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q3">
-        <v>1.170051192691333</v>
+        <v>1.170051192691334</v>
       </c>
       <c r="R3">
         <v>10.530460734222</v>
       </c>
       <c r="S3">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="T3">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N4">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O4">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P4">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q4">
-        <v>0.2239090826512222</v>
+        <v>0.09253845173588889</v>
       </c>
       <c r="R4">
-        <v>2.015181743861</v>
+        <v>0.8328460656230001</v>
       </c>
       <c r="S4">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="T4">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N5">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O5">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P5">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q5">
-        <v>0.2771803869358334</v>
+        <v>0.525121801204</v>
       </c>
       <c r="R5">
-        <v>1.663082321615</v>
+        <v>3.150730807224</v>
       </c>
       <c r="S5">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="T5">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N6">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O6">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P6">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q6">
-        <v>4.458547452073001</v>
+        <v>0.05504675436577777</v>
       </c>
       <c r="R6">
-        <v>40.126927068657</v>
+        <v>0.495420789292</v>
       </c>
       <c r="S6">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="T6">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N7">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O7">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P7">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q7">
-        <v>0.2372331401757777</v>
+        <v>0.1646547296997778</v>
       </c>
       <c r="R7">
-        <v>2.135098261582</v>
+        <v>1.481892567298</v>
       </c>
       <c r="S7">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="T7">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
     </row>
   </sheetData>
